--- a/VersionRecords/Version 5.3.3 20170314/版本Bug和特性计划及评审表v5.3.3_磐石组.xlsx
+++ b/VersionRecords/Version 5.3.3 20170314/版本Bug和特性计划及评审表v5.3.3_磐石组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
   <si>
     <t>No</t>
   </si>
@@ -253,9 +253,6 @@
     <t>New Features</t>
   </si>
   <si>
-    <t>BS</t>
-  </si>
-  <si>
     <t>是</t>
   </si>
   <si>
@@ -296,6 +293,29 @@
   </si>
   <si>
     <t>王健</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修PC端线上优化</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩、严宏飞</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2773</t>
+  </si>
+  <si>
+    <t>BS、定时器</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -1015,7 +1035,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1362,7 +1382,7 @@
   <dimension ref="A1:X170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1479,42 +1499,42 @@
         <v>71</v>
       </c>
       <c r="F2" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="58" t="s">
         <v>72</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>73</v>
       </c>
       <c r="H2" s="59"/>
       <c r="I2" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J2" s="59">
         <v>42804</v>
       </c>
       <c r="K2" s="58"/>
       <c r="L2" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="N2" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="O2" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="58" t="s">
+      <c r="P2" s="80" t="s">
         <v>77</v>
-      </c>
-      <c r="P2" s="80" t="s">
-        <v>78</v>
       </c>
       <c r="Q2" s="59">
         <v>42807</v>
       </c>
       <c r="R2" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="68" t="s">
         <v>79</v>
-      </c>
-      <c r="S2" s="68" t="s">
-        <v>80</v>
       </c>
       <c r="T2" s="56"/>
       <c r="U2" s="56"/>
@@ -1533,48 +1553,48 @@
         <v>69</v>
       </c>
       <c r="D3" s="79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="58" t="s">
         <v>71</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3" s="59"/>
       <c r="I3" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J3" s="59">
         <v>42803</v>
       </c>
       <c r="K3" s="58"/>
       <c r="L3" s="80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M3" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="58" t="s">
-        <v>76</v>
-      </c>
       <c r="O3" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P3" s="62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="59">
         <v>42807</v>
       </c>
       <c r="R3" s="62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S3" s="68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T3" s="56"/>
       <c r="U3" s="56"/>
@@ -1583,25 +1603,59 @@
       <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="A4" s="51">
+        <v>3</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="H4" s="59"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
+      <c r="I4" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="59">
+        <v>42804</v>
+      </c>
       <c r="K4" s="58"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="56"/>
+      <c r="L4" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="59">
+        <v>42807</v>
+      </c>
+      <c r="R4" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="68" t="s">
+        <v>89</v>
+      </c>
       <c r="T4" s="56"/>
       <c r="U4" s="56"/>
       <c r="V4" s="67"/>
@@ -5655,13 +5709,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 G1:G1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1"/>
     <hyperlink ref="S3" r:id="rId2"/>
+    <hyperlink ref="S4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
